--- a/rtscar-mouser.xlsx
+++ b/rtscar-mouser.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayheider/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayheider/Work/rtscar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4F131-797C-164A-8401-182A68C70A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A17FB5-3D7A-C240-8639-DEA3A5FE59EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="1980" windowWidth="28240" windowHeight="17240" xr2:uid="{532FAF4A-FF44-C245-A715-D47D48B2903D}"/>
+    <workbookView xWindow="10160" yWindow="1980" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{532FAF4A-FF44-C245-A715-D47D48B2903D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Festspannungsregler</t>
   </si>
@@ -81,13 +82,58 @@
   </si>
   <si>
     <t xml:space="preserve">ERJ-XGNF1002Y </t>
+  </si>
+  <si>
+    <t>Burshless controller+motor</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>Laser distanz</t>
+  </si>
+  <si>
+    <t>Modellbauräder 4</t>
+  </si>
+  <si>
+    <t>Stärkerer Akku + Leistungselk.</t>
+  </si>
+  <si>
+    <t>Gyroskop</t>
+  </si>
+  <si>
+    <t>Brushless motor</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/pichler-modellbau-boost-15-flugmodell-brushless-elektromotor-kv-u-min-pro-volt-1000-1436819.html</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>Reifen</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/reely-1-10-buggy-komplettraeder-spike-5-doppelspeichen-schwarz-2-st-2183245.html</t>
+  </si>
+  <si>
+    <t>motor driver</t>
+  </si>
+  <si>
+    <t>arduino nnao every</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SEN-15335</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +153,18 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24444A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1D1D1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,10 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1286FA3E-D0DB-8D4C-9552-C1453CF1F8D8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -545,4 +605,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A9A7B-91E9-9441-A5FA-B373BA3DE234}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>